--- a/wx_00/问题及解决方案.xlsx
+++ b/wx_00/问题及解决方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>pins页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义属性命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-自定义属性名 中，属性名只能小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -108,6 +116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,14 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
@@ -465,6 +477,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wx_00/问题及解决方案.xlsx
+++ b/wx_00/问题及解决方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>data-自定义属性名 中，属性名只能小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子元素处写上-webkit-column-break-inside:avoid;可以防止内部断裂(有兼容问题)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,13 +431,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
@@ -460,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,6 +476,9 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>

--- a/wx_00/问题及解决方案.xlsx
+++ b/wx_00/问题及解决方案.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/wx_00/问题及解决方案.xlsx
+++ b/wx_00/问题及解决方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>子元素处写上-webkit-column-break-inside:avoid;可以防止内部断裂(有兼容问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx.uploadFile返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值中的data为字符串格式而非对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON.parse(res)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,16 +125,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,30 +440,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -474,10 +487,10 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -488,11 +501,25 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/wx_00/问题及解决方案.xlsx
+++ b/wx_00/问题及解决方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,28 @@
   </si>
   <si>
     <t>JSON.parse(res)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.map()内部执行异步操作，导致输出结果可能不正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.map()是同步函数，内部执行异步操作时，有时异步结果未获取就执行下一次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index搜索栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出长度和遍历的数组长度相同，且里面没有空值
+a = outputList.length == arr.length
+b = true
+for(var i=0; i&lt;outputList.length; i++){
+  b = b &amp;&amp; outputList[i] != undefined    
+}
+if( a &amp;&amp; b ){ res.send({...}) }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,19 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,24 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,14 +493,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -498,29 +514,218 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/wx_00/问题及解决方案.xlsx
+++ b/wx_00/问题及解决方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,19 @@
   b = b &amp;&amp; outputList[i] != undefined    
 }
 if( a &amp;&amp; b ){ res.send({...}) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库取得日期时，时间格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取数据时，使用date_formar()方法获取
+DATE_FORMAT(time,'%Y-%m-%d %H:%i:%s')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes/pic.js/62</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +472,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,11 +572,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
